--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H2">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1429513333333333</v>
+        <v>0.027509</v>
       </c>
       <c r="N2">
-        <v>0.428854</v>
+        <v>0.082527</v>
       </c>
       <c r="O2">
-        <v>0.1058099051556342</v>
+        <v>0.003989820149889837</v>
       </c>
       <c r="P2">
-        <v>0.1058099051556342</v>
+        <v>0.003989820149889836</v>
       </c>
       <c r="Q2">
-        <v>22.346335261422</v>
+        <v>4.665392807126334</v>
       </c>
       <c r="R2">
-        <v>201.117017352798</v>
+        <v>41.98853526413701</v>
       </c>
       <c r="S2">
-        <v>0.0216154927406938</v>
+        <v>0.0008275923402841823</v>
       </c>
       <c r="T2">
-        <v>0.0216154927406938</v>
+        <v>0.0008275923402841822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H3">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.027509</v>
+        <v>2.705026333333334</v>
       </c>
       <c r="N3">
-        <v>0.082527</v>
+        <v>8.115079000000001</v>
       </c>
       <c r="O3">
-        <v>0.02036164765346488</v>
+        <v>0.3923286404709717</v>
       </c>
       <c r="P3">
-        <v>0.02036164765346487</v>
+        <v>0.3923286404709715</v>
       </c>
       <c r="Q3">
-        <v>4.300242064011001</v>
+        <v>458.7593296237833</v>
       </c>
       <c r="R3">
-        <v>38.702178576099</v>
+        <v>4128.83396661405</v>
       </c>
       <c r="S3">
-        <v>0.004159601564661255</v>
+        <v>0.08137915132260985</v>
       </c>
       <c r="T3">
-        <v>0.004159601564661255</v>
+        <v>0.08137915132260982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H4">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.047884</v>
+        <v>0.146307</v>
       </c>
       <c r="N4">
-        <v>0.143652</v>
+        <v>0.438921</v>
       </c>
       <c r="O4">
-        <v>0.03544284184225206</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="P4">
-        <v>0.03544284184225206</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="Q4">
-        <v>7.485288123636001</v>
+        <v>24.812956684439</v>
       </c>
       <c r="R4">
-        <v>67.36759311272401</v>
+        <v>223.316610159951</v>
       </c>
       <c r="S4">
-        <v>0.007240479891026191</v>
+        <v>0.004401561399176918</v>
       </c>
       <c r="T4">
-        <v>0.007240479891026192</v>
+        <v>0.004401561399176918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H5">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1587963333333333</v>
+        <v>4.015954666666667</v>
       </c>
       <c r="N5">
-        <v>0.4763890000000001</v>
+        <v>12.047864</v>
       </c>
       <c r="O5">
-        <v>0.117538078010669</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="P5">
-        <v>0.117538078010669</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="Q5">
-        <v>24.823245927177</v>
+        <v>681.0864086521538</v>
       </c>
       <c r="R5">
-        <v>223.409213344593</v>
+        <v>6129.777677869384</v>
       </c>
       <c r="S5">
-        <v>0.02401139541952828</v>
+        <v>0.1208176713461721</v>
       </c>
       <c r="T5">
-        <v>0.02401139541952828</v>
+        <v>0.1208176713461721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>156.321279</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H6">
-        <v>468.963837</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I6">
-        <v>0.2042860988193865</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J6">
-        <v>0.2042860988193865</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.9738796666666668</v>
+        <v>0.027509</v>
       </c>
       <c r="N6">
-        <v>2.921639</v>
+        <v>0.082527</v>
       </c>
       <c r="O6">
-        <v>0.7208475273379799</v>
+        <v>0.003989820149889837</v>
       </c>
       <c r="P6">
-        <v>0.7208475273379799</v>
+        <v>0.003989820149889836</v>
       </c>
       <c r="Q6">
-        <v>152.238115085427</v>
+        <v>9.123722070172667</v>
       </c>
       <c r="R6">
-        <v>1370.143035768843</v>
+        <v>82.11349863155399</v>
       </c>
       <c r="S6">
-        <v>0.147259129203477</v>
+        <v>0.00161845375348095</v>
       </c>
       <c r="T6">
-        <v>0.147259129203477</v>
+        <v>0.00161845375348095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I7">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J7">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1429513333333333</v>
+        <v>2.705026333333334</v>
       </c>
       <c r="N7">
-        <v>0.428854</v>
+        <v>8.115079000000001</v>
       </c>
       <c r="O7">
-        <v>0.1058099051556342</v>
+        <v>0.3923286404709717</v>
       </c>
       <c r="P7">
-        <v>0.1058099051556342</v>
+        <v>0.3923286404709715</v>
       </c>
       <c r="Q7">
-        <v>47.41169198785645</v>
+        <v>897.1576014334066</v>
       </c>
       <c r="R7">
-        <v>426.705227890708</v>
+        <v>8074.418412900659</v>
       </c>
       <c r="S7">
-        <v>0.04586108066483503</v>
+        <v>0.1591464619741956</v>
       </c>
       <c r="T7">
-        <v>0.04586108066483502</v>
+        <v>0.1591464619741955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I8">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J8">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.027509</v>
+        <v>0.146307</v>
       </c>
       <c r="N8">
-        <v>0.082527</v>
+        <v>0.438921</v>
       </c>
       <c r="O8">
-        <v>0.02036164765346488</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="P8">
-        <v>0.02036164765346487</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="Q8">
-        <v>9.123722070172667</v>
+        <v>48.524643023038</v>
       </c>
       <c r="R8">
-        <v>82.11349863155399</v>
+        <v>436.7217872073419</v>
       </c>
       <c r="S8">
-        <v>0.008825328442842647</v>
+        <v>0.008607768850577534</v>
       </c>
       <c r="T8">
-        <v>0.008825328442842645</v>
+        <v>0.008607768850577532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,55 +980,55 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I9">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J9">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.047884</v>
+        <v>4.015954666666667</v>
       </c>
       <c r="N9">
-        <v>0.143652</v>
+        <v>12.047864</v>
       </c>
       <c r="O9">
-        <v>0.03544284184225206</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="P9">
-        <v>0.03544284184225206</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="Q9">
-        <v>15.88135910458933</v>
+        <v>1331.944244613748</v>
       </c>
       <c r="R9">
-        <v>142.932231941304</v>
+        <v>11987.49820152373</v>
       </c>
       <c r="S9">
-        <v>0.01536195525671879</v>
+        <v>0.236273107131339</v>
       </c>
       <c r="T9">
-        <v>0.01536195525671879</v>
+        <v>0.236273107131339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>331.6631673333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H10">
-        <v>994.9895019999999</v>
+        <v>294.523643</v>
       </c>
       <c r="I10">
-        <v>0.4334289932249598</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J10">
-        <v>0.4334289932249598</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1587963333333333</v>
+        <v>0.027509</v>
       </c>
       <c r="N10">
-        <v>0.4763890000000001</v>
+        <v>0.082527</v>
       </c>
       <c r="O10">
-        <v>0.117538078010669</v>
+        <v>0.003989820149889837</v>
       </c>
       <c r="P10">
-        <v>0.117538078010669</v>
+        <v>0.003989820149889836</v>
       </c>
       <c r="Q10">
-        <v>52.66689487425311</v>
+        <v>2.700683631762334</v>
       </c>
       <c r="R10">
-        <v>474.002053868278</v>
+        <v>24.306152685861</v>
       </c>
       <c r="S10">
-        <v>0.05094441081776104</v>
+        <v>0.0004790732912699952</v>
       </c>
       <c r="T10">
-        <v>0.05094441081776104</v>
+        <v>0.000479073291269995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>331.6631673333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H11">
-        <v>994.9895019999999</v>
+        <v>294.523643</v>
       </c>
       <c r="I11">
-        <v>0.4334289932249598</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J11">
-        <v>0.4334289932249598</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9738796666666668</v>
+        <v>2.705026333333334</v>
       </c>
       <c r="N11">
-        <v>2.921639</v>
+        <v>8.115079000000001</v>
       </c>
       <c r="O11">
-        <v>0.7208475273379799</v>
+        <v>0.3923286404709717</v>
       </c>
       <c r="P11">
-        <v>0.7208475273379799</v>
+        <v>0.3923286404709715</v>
       </c>
       <c r="Q11">
-        <v>323.0000148481976</v>
+        <v>265.564736701422</v>
       </c>
       <c r="R11">
-        <v>2907.000133633778</v>
+        <v>2390.082630312797</v>
       </c>
       <c r="S11">
-        <v>0.3124362180428023</v>
+        <v>0.04710843245781408</v>
       </c>
       <c r="T11">
-        <v>0.3124362180428023</v>
+        <v>0.04710843245781406</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H12">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1429513333333333</v>
+        <v>0.146307</v>
       </c>
       <c r="N12">
-        <v>0.428854</v>
+        <v>0.438921</v>
       </c>
       <c r="O12">
-        <v>0.1058099051556342</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="P12">
-        <v>0.1058099051556342</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="Q12">
-        <v>13.38038236683311</v>
+        <v>14.363623545467</v>
       </c>
       <c r="R12">
-        <v>120.423441301498</v>
+        <v>129.272611909203</v>
       </c>
       <c r="S12">
-        <v>0.01294277359282687</v>
+        <v>0.002547957978328517</v>
       </c>
       <c r="T12">
-        <v>0.01294277359282687</v>
+        <v>0.002547957978328517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H13">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.027509</v>
+        <v>4.015954666666667</v>
       </c>
       <c r="N13">
-        <v>0.082527</v>
+        <v>12.047864</v>
       </c>
       <c r="O13">
-        <v>0.02036164765346488</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="P13">
-        <v>0.02036164765346487</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="Q13">
-        <v>2.574868872827667</v>
+        <v>394.2645328498391</v>
       </c>
       <c r="R13">
-        <v>23.173819855449</v>
+        <v>3548.380795648552</v>
       </c>
       <c r="S13">
-        <v>0.002490657138082478</v>
+        <v>0.0699384426824347</v>
       </c>
       <c r="T13">
-        <v>0.002490657138082478</v>
+        <v>0.0699384426824347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>93.60096233333333</v>
+        <v>105.935201</v>
       </c>
       <c r="H14">
-        <v>280.802887</v>
+        <v>317.805603</v>
       </c>
       <c r="I14">
-        <v>0.1223210017416567</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J14">
-        <v>0.1223210017416567</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,43 +1302,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.047884</v>
+        <v>0.027509</v>
       </c>
       <c r="N14">
-        <v>0.143652</v>
+        <v>0.082527</v>
       </c>
       <c r="O14">
-        <v>0.03544284184225206</v>
+        <v>0.003989820149889837</v>
       </c>
       <c r="P14">
-        <v>0.03544284184225206</v>
+        <v>0.003989820149889836</v>
       </c>
       <c r="Q14">
-        <v>4.481988480369333</v>
+        <v>2.914171444309</v>
       </c>
       <c r="R14">
-        <v>40.337896323324</v>
+        <v>26.227542998781</v>
       </c>
       <c r="S14">
-        <v>0.004335403918715378</v>
+        <v>0.0005169438170138874</v>
       </c>
       <c r="T14">
-        <v>0.004335403918715379</v>
+        <v>0.0005169438170138871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>93.60096233333333</v>
+        <v>105.935201</v>
       </c>
       <c r="H15">
-        <v>280.802887</v>
+        <v>317.805603</v>
       </c>
       <c r="I15">
-        <v>0.1223210017416567</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J15">
-        <v>0.1223210017416567</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1587963333333333</v>
+        <v>2.705026333333334</v>
       </c>
       <c r="N15">
-        <v>0.4763890000000001</v>
+        <v>8.115079000000001</v>
       </c>
       <c r="O15">
-        <v>0.117538078010669</v>
+        <v>0.3923286404709717</v>
       </c>
       <c r="P15">
-        <v>0.117538078010669</v>
+        <v>0.3923286404709715</v>
       </c>
       <c r="Q15">
-        <v>14.86348961500478</v>
+        <v>286.5575083319598</v>
       </c>
       <c r="R15">
-        <v>133.771406535043</v>
+        <v>2579.017574987638</v>
       </c>
       <c r="S15">
-        <v>0.01437737544505402</v>
+        <v>0.05083233261392321</v>
       </c>
       <c r="T15">
-        <v>0.01437737544505402</v>
+        <v>0.05083233261392318</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>93.60096233333333</v>
+        <v>105.935201</v>
       </c>
       <c r="H16">
-        <v>280.802887</v>
+        <v>317.805603</v>
       </c>
       <c r="I16">
-        <v>0.1223210017416567</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J16">
-        <v>0.1223210017416567</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9738796666666668</v>
+        <v>0.146307</v>
       </c>
       <c r="N16">
-        <v>2.921639</v>
+        <v>0.438921</v>
       </c>
       <c r="O16">
-        <v>0.7208475273379799</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="P16">
-        <v>0.7208475273379799</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="Q16">
-        <v>91.1560739968659</v>
+        <v>15.499061452707</v>
       </c>
       <c r="R16">
-        <v>820.4046659717931</v>
+        <v>139.491553074363</v>
       </c>
       <c r="S16">
-        <v>0.08817479164697797</v>
+        <v>0.002749372897446319</v>
       </c>
       <c r="T16">
-        <v>0.08817479164697799</v>
+        <v>0.002749372897446319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H17">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1429513333333333</v>
+        <v>4.015954666666667</v>
       </c>
       <c r="N17">
-        <v>0.428854</v>
+        <v>12.047864</v>
       </c>
       <c r="O17">
-        <v>0.1058099051556342</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="P17">
-        <v>0.1058099051556342</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="Q17">
-        <v>13.05321289046333</v>
+        <v>425.4309648202213</v>
       </c>
       <c r="R17">
-        <v>117.47891601417</v>
+        <v>3828.878683381992</v>
       </c>
       <c r="S17">
-        <v>0.01262630427655127</v>
+        <v>0.07546704476140172</v>
       </c>
       <c r="T17">
-        <v>0.01262630427655127</v>
+        <v>0.0754670447614017</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.31228499999999</v>
+        <v>112.249611</v>
       </c>
       <c r="H18">
-        <v>273.936855</v>
+        <v>336.748833</v>
       </c>
       <c r="I18">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J18">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,27 +1556,27 @@
         <v>0.082527</v>
       </c>
       <c r="O18">
-        <v>0.02036164765346488</v>
+        <v>0.003989820149889837</v>
       </c>
       <c r="P18">
-        <v>0.02036164765346487</v>
+        <v>0.003989820149889836</v>
       </c>
       <c r="Q18">
-        <v>2.511909648065</v>
+        <v>3.087874548999</v>
       </c>
       <c r="R18">
-        <v>22.607186832585</v>
+        <v>27.790870940991</v>
       </c>
       <c r="S18">
-        <v>0.002429757010616542</v>
+        <v>0.0005477569478408224</v>
       </c>
       <c r="T18">
-        <v>0.002429757010616542</v>
+        <v>0.0005477569478408222</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.31228499999999</v>
+        <v>112.249611</v>
       </c>
       <c r="H19">
-        <v>273.936855</v>
+        <v>336.748833</v>
       </c>
       <c r="I19">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J19">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.047884</v>
+        <v>2.705026333333334</v>
       </c>
       <c r="N19">
-        <v>0.143652</v>
+        <v>8.115079000000001</v>
       </c>
       <c r="O19">
-        <v>0.03544284184225206</v>
+        <v>0.3923286404709717</v>
       </c>
       <c r="P19">
-        <v>0.03544284184225206</v>
+        <v>0.3923286404709715</v>
       </c>
       <c r="Q19">
-        <v>4.37239745494</v>
+        <v>303.6381536614231</v>
       </c>
       <c r="R19">
-        <v>39.35157709446</v>
+        <v>2732.743382952807</v>
       </c>
       <c r="S19">
-        <v>0.004229397095363789</v>
+        <v>0.05386226210242895</v>
       </c>
       <c r="T19">
-        <v>0.00422939709536379</v>
+        <v>0.05386226210242892</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>91.31228499999999</v>
+        <v>112.249611</v>
       </c>
       <c r="H20">
-        <v>273.936855</v>
+        <v>336.748833</v>
       </c>
       <c r="I20">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J20">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1587963333333333</v>
+        <v>0.146307</v>
       </c>
       <c r="N20">
-        <v>0.4763890000000001</v>
+        <v>0.438921</v>
       </c>
       <c r="O20">
-        <v>0.117538078010669</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="P20">
-        <v>0.117538078010669</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="Q20">
-        <v>14.50005604628833</v>
+        <v>16.422903836577</v>
       </c>
       <c r="R20">
-        <v>130.500504416595</v>
+        <v>147.806134529193</v>
       </c>
       <c r="S20">
-        <v>0.01402582806270195</v>
+        <v>0.002913252963311904</v>
       </c>
       <c r="T20">
-        <v>0.01402582806270195</v>
+        <v>0.002913252963311904</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>91.31228499999999</v>
+        <v>112.249611</v>
       </c>
       <c r="H21">
-        <v>273.936855</v>
+        <v>336.748833</v>
       </c>
       <c r="I21">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J21">
-        <v>0.1193300783889696</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.9738796666666668</v>
+        <v>4.015954666666667</v>
       </c>
       <c r="N21">
-        <v>2.921639</v>
+        <v>12.047864</v>
       </c>
       <c r="O21">
-        <v>0.7208475273379799</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="P21">
-        <v>0.7208475273379799</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="Q21">
-        <v>88.92717767837166</v>
+        <v>450.789349126968</v>
       </c>
       <c r="R21">
-        <v>800.3445991053451</v>
+        <v>4057.104142142712</v>
       </c>
       <c r="S21">
-        <v>0.08601879194373602</v>
+        <v>0.0799653593689498</v>
       </c>
       <c r="T21">
-        <v>0.08601879194373603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>92.30992399999998</v>
-      </c>
-      <c r="H22">
-        <v>276.929772</v>
-      </c>
-      <c r="I22">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="J22">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.1429513333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.428854</v>
-      </c>
-      <c r="O22">
-        <v>0.1058099051556342</v>
-      </c>
-      <c r="P22">
-        <v>0.1058099051556342</v>
-      </c>
-      <c r="Q22">
-        <v>13.19582671569867</v>
-      </c>
-      <c r="R22">
-        <v>118.762440441288</v>
-      </c>
-      <c r="S22">
-        <v>0.01276425388072725</v>
-      </c>
-      <c r="T22">
-        <v>0.01276425388072725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>92.30992399999998</v>
-      </c>
-      <c r="H23">
-        <v>276.929772</v>
-      </c>
-      <c r="I23">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="J23">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.027509</v>
-      </c>
-      <c r="N23">
-        <v>0.082527</v>
-      </c>
-      <c r="O23">
-        <v>0.02036164765346488</v>
-      </c>
-      <c r="P23">
-        <v>0.02036164765346487</v>
-      </c>
-      <c r="Q23">
-        <v>2.539353699316</v>
-      </c>
-      <c r="R23">
-        <v>22.854183293844</v>
-      </c>
-      <c r="S23">
-        <v>0.002456303497261953</v>
-      </c>
-      <c r="T23">
-        <v>0.002456303497261953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>92.30992399999998</v>
-      </c>
-      <c r="H24">
-        <v>276.929772</v>
-      </c>
-      <c r="I24">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="J24">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.047884</v>
-      </c>
-      <c r="N24">
-        <v>0.143652</v>
-      </c>
-      <c r="O24">
-        <v>0.03544284184225206</v>
-      </c>
-      <c r="P24">
-        <v>0.03544284184225206</v>
-      </c>
-      <c r="Q24">
-        <v>4.420168400815999</v>
-      </c>
-      <c r="R24">
-        <v>39.78151560734399</v>
-      </c>
-      <c r="S24">
-        <v>0.004275605680427908</v>
-      </c>
-      <c r="T24">
-        <v>0.004275605680427909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>92.30992399999998</v>
-      </c>
-      <c r="H25">
-        <v>276.929772</v>
-      </c>
-      <c r="I25">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="J25">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.1587963333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.4763890000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.117538078010669</v>
-      </c>
-      <c r="P25">
-        <v>0.117538078010669</v>
-      </c>
-      <c r="Q25">
-        <v>14.65847746147866</v>
-      </c>
-      <c r="R25">
-        <v>131.926297153308</v>
-      </c>
-      <c r="S25">
-        <v>0.01417906826562367</v>
-      </c>
-      <c r="T25">
-        <v>0.01417906826562367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>92.30992399999998</v>
-      </c>
-      <c r="H26">
-        <v>276.929772</v>
-      </c>
-      <c r="I26">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="J26">
-        <v>0.1206338278250273</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.9738796666666668</v>
-      </c>
-      <c r="N26">
-        <v>2.921639</v>
-      </c>
-      <c r="O26">
-        <v>0.7208475273379799</v>
-      </c>
-      <c r="P26">
-        <v>0.7208475273379799</v>
-      </c>
-      <c r="Q26">
-        <v>89.89875801514533</v>
-      </c>
-      <c r="R26">
-        <v>809.088822136308</v>
-      </c>
-      <c r="S26">
-        <v>0.08695859650098652</v>
-      </c>
-      <c r="T26">
-        <v>0.08695859650098653</v>
+        <v>0.07996535936894979</v>
       </c>
     </row>
   </sheetData>
